--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.829578278203087E-14</v>
+        <v>2.075288033717824E-15</v>
       </c>
       <c r="E2">
-        <v>1.829578278203087E-14</v>
+        <v>2.075288033717824E-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.05758952408113472</v>
+        <v>0.001415447640223733</v>
       </c>
       <c r="E3">
-        <v>0.05758952408113472</v>
+        <v>0.001415447640223733</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3373615371706531</v>
+        <v>0.9999973526540379</v>
       </c>
       <c r="E4">
-        <v>0.3373615371706531</v>
+        <v>0.9999973526540379</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999985946960523</v>
+        <v>0.9999999994247712</v>
       </c>
       <c r="E5">
-        <v>0.9999985946960523</v>
+        <v>0.9999999994247712</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999093704526</v>
+        <v>0.9999999993924611</v>
       </c>
       <c r="E6">
-        <v>0.9999999093704526</v>
+        <v>0.9999999993924611</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9992302348708173</v>
+        <v>0.9979599796227198</v>
       </c>
       <c r="E7">
-        <v>0.0007697651291826979</v>
+        <v>0.002040020377280238</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9961189492140998</v>
+        <v>0.4314795984705317</v>
       </c>
       <c r="E8">
-        <v>0.003881050785900175</v>
+        <v>0.5685204015294683</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0006117958835728849</v>
+        <v>0.000264710588814839</v>
       </c>
       <c r="E10">
-        <v>0.9993882041164271</v>
+        <v>0.9997352894111852</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999842687672451</v>
+        <v>0.99938655323331</v>
       </c>
       <c r="E11">
-        <v>1.573123275488975E-05</v>
+        <v>0.0006134467666899512</v>
       </c>
       <c r="F11">
-        <v>3.756637096405029</v>
+        <v>6.442128658294678</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
